--- a/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067318D8-4D30-4DBB-9C7F-E8A108F044D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA54A4-ECFE-480A-9CBC-DFCD3EACA664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Italy" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>Wg</t>
   </si>
@@ -109,6 +110,9 @@
   </si>
   <si>
     <t>NGC-3479/T2511</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2159</t>
   </si>
 </sst>
 </file>
@@ -838,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD90AC09-D95D-4D62-878C-DA83FF7B31C7}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -941,7 +945,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1036,4 +1040,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A545F763-1EB5-4EE2-B025-5AA345E54A5E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5546875" customWidth="1"/>
+    <col min="2" max="2" width="24.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FA54A4-ECFE-480A-9CBC-DFCD3EACA664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB04BEF-7B54-4022-A6FB-49D01CA9BCD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Italy" sheetId="18" r:id="rId6"/>
+    <sheet name="Spain" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
   <si>
     <t>Wg</t>
   </si>
@@ -113,6 +114,12 @@
   </si>
   <si>
     <t>NGC-3145/T2159</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2037</t>
   </si>
 </sst>
 </file>
@@ -1046,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A545F763-1EB5-4EE2-B025-5AA345E54A5E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1142,4 +1149,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE238841-B563-4B23-8EA8-456BCE49258D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB04BEF-7B54-4022-A6FB-49D01CA9BCD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AFBEE8-1560-4FB3-8FEF-9A374E19ED0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Italy" sheetId="18" r:id="rId6"/>
     <sheet name="Spain" sheetId="19" r:id="rId7"/>
+    <sheet name="Netherlands" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>NGC-3103/T2037</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2175</t>
   </si>
 </sst>
 </file>
@@ -1155,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE238841-B563-4B23-8EA8-456BCE49258D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1250,4 +1257,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20EE535-46DF-47C9-BD70-E06782DC39E0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
+++ b/Test Data/Gallery_RBus_Repeaters_Pro_Lite_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66AFBEE8-1560-4FB3-8FEF-9A374E19ED0B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B3F588-427D-4727-AC25-8939EC70E629}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Italy" sheetId="18" r:id="rId6"/>
     <sheet name="Spain" sheetId="19" r:id="rId7"/>
     <sheet name="Netherlands" sheetId="20" r:id="rId8"/>
+    <sheet name="UK" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t>NGC-3144/T2175</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3399</t>
   </si>
 </sst>
 </file>
@@ -1263,6 +1267,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20EE535-46DF-47C9-BD70-E06782DC39E0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71DB4D33-2A51-4D5E-AA81-75C93CC89A74}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1309,7 +1414,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
